--- a/panduan lelang (1).xlsx
+++ b/panduan lelang (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="panduan lelang" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,52 +11,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>view</t>
   </si>
   <si>
-    <t>judul</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
     <t>ikut lelang</t>
   </si>
   <si>
-    <t>Tata Cara Ikut Lelang</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
     <t>pembayaran dan pengambilan unit</t>
   </si>
   <si>
-    <t>Tata Cara Pembayaran Dan Pengambilan Unit</t>
-  </si>
-  <si>
     <t>penarikan deposit</t>
   </si>
   <si>
-    <t>Tata Cara Penarikan Deposit</t>
-  </si>
-  <si>
     <t>top up deposit</t>
-  </si>
-  <si>
-    <t>Tata Cara Top Up Deposit</t>
-  </si>
-  <si>
-    <t>semua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -64,13 +46,9 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -104,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -112,12 +90,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -337,7 +309,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="29.71"/>
-    <col customWidth="1" min="2" max="2" width="39.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -347,63 +318,37 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
